--- a/data/output/FV2504_FV2410/MSCONS/13020.xlsx
+++ b/data/output/FV2504_FV2410/MSCONS/13020.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2284" uniqueCount="246">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2305" uniqueCount="246">
+  <si>
+    <t>Segmentname_FV2410</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2410</t>
+  </si>
+  <si>
+    <t>Segment_FV2410</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2410</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2410</t>
+  </si>
+  <si>
+    <t>Code_FV2410</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2410</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2410</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2504</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2504</t>
+  </si>
+  <si>
+    <t>Segment_FV2504</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2504</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2504</t>
+  </si>
+  <si>
+    <t>Code_FV2504</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2504</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2504</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2504</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2504</t>
   </si>
   <si>
     <t>Nutzdaten-Kopfsegment</t>
@@ -866,6 +866,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U108" totalsRowShown="0">
+  <autoFilter ref="A1:U108"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2410"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2410"/>
+    <tableColumn id="3" name="Segment_FV2410"/>
+    <tableColumn id="4" name="Datenelement_FV2410"/>
+    <tableColumn id="5" name="Segment ID_FV2410"/>
+    <tableColumn id="6" name="Code_FV2410"/>
+    <tableColumn id="7" name="Qualifier_FV2410"/>
+    <tableColumn id="8" name="Beschreibung_FV2410"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2410"/>
+    <tableColumn id="10" name="Bedingung_FV2410"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2504"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2504"/>
+    <tableColumn id="14" name="Segment_FV2504"/>
+    <tableColumn id="15" name="Datenelement_FV2504"/>
+    <tableColumn id="16" name="Segment ID_FV2504"/>
+    <tableColumn id="17" name="Code_FV2504"/>
+    <tableColumn id="18" name="Qualifier_FV2504"/>
+    <tableColumn id="19" name="Beschreibung_FV2504"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2504"/>
+    <tableColumn id="21" name="Bedingung_FV2504"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1155,7 +1185,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U108"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -6302,5 +6335,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2504_FV2410/MSCONS/13020.xlsx
+++ b/data/output/FV2504_FV2410/MSCONS/13020.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2855" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2791" uniqueCount="350">
   <si>
     <t>#</t>
   </si>
@@ -5310,9 +5310,7 @@
         <v>204</v>
       </c>
       <c r="K76" s="5"/>
-      <c r="L76" s="7" t="s">
-        <v>238</v>
-      </c>
+      <c r="L76" s="4"/>
       <c r="M76" s="5" t="s">
         <v>34</v>
       </c>
@@ -5368,9 +5366,7 @@
         <v>204</v>
       </c>
       <c r="K77" s="5"/>
-      <c r="L77" s="7" t="s">
-        <v>238</v>
-      </c>
+      <c r="L77" s="4"/>
       <c r="M77" s="5" t="s">
         <v>34</v>
       </c>
@@ -5426,9 +5422,7 @@
         <v>204</v>
       </c>
       <c r="K78" s="5"/>
-      <c r="L78" s="7" t="s">
-        <v>238</v>
-      </c>
+      <c r="L78" s="4"/>
       <c r="M78" s="5" t="s">
         <v>34</v>
       </c>
@@ -5538,9 +5532,7 @@
         <v>204</v>
       </c>
       <c r="K80" s="5"/>
-      <c r="L80" s="7" t="s">
-        <v>238</v>
-      </c>
+      <c r="L80" s="4"/>
       <c r="M80" s="5" t="s">
         <v>35</v>
       </c>
@@ -5598,9 +5590,7 @@
       <c r="K81" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="L81" s="7" t="s">
-        <v>238</v>
-      </c>
+      <c r="L81" s="4"/>
       <c r="M81" s="5" t="s">
         <v>35</v>
       </c>
@@ -5658,9 +5648,7 @@
         <v>204</v>
       </c>
       <c r="K82" s="5"/>
-      <c r="L82" s="7" t="s">
-        <v>238</v>
-      </c>
+      <c r="L82" s="4"/>
       <c r="M82" s="5" t="s">
         <v>35</v>
       </c>
@@ -5689,44 +5677,42 @@
       <c r="V82" s="5"/>
     </row>
     <row r="83" spans="1:22">
-      <c r="A83" s="5" t="s">
+      <c r="A83" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="B83" s="5" t="s">
+      <c r="B83" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C83" s="5" t="s">
+      <c r="C83" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D83" s="5"/>
-      <c r="E83" s="5"/>
-      <c r="F83" s="5"/>
-      <c r="G83" s="5"/>
-      <c r="H83" s="5"/>
-      <c r="I83" s="5"/>
-      <c r="J83" s="5" t="s">
+      <c r="D83" s="2"/>
+      <c r="E83" s="2"/>
+      <c r="F83" s="2"/>
+      <c r="G83" s="2"/>
+      <c r="H83" s="2"/>
+      <c r="I83" s="2"/>
+      <c r="J83" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="K83" s="5"/>
-      <c r="L83" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="M83" s="5" t="s">
+      <c r="K83" s="2"/>
+      <c r="L83" s="4"/>
+      <c r="M83" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="N83" s="5" t="s">
+      <c r="N83" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="O83" s="5"/>
-      <c r="P83" s="5"/>
-      <c r="Q83" s="5"/>
-      <c r="R83" s="5"/>
-      <c r="S83" s="5"/>
-      <c r="T83" s="5"/>
-      <c r="U83" s="5" t="s">
+      <c r="O83" s="2"/>
+      <c r="P83" s="2"/>
+      <c r="Q83" s="2"/>
+      <c r="R83" s="2"/>
+      <c r="S83" s="2"/>
+      <c r="T83" s="2"/>
+      <c r="U83" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="V83" s="5"/>
+      <c r="V83" s="2"/>
     </row>
     <row r="84" spans="1:22">
       <c r="A84" s="5" t="s">
@@ -5752,9 +5738,7 @@
         <v>203</v>
       </c>
       <c r="K84" s="5"/>
-      <c r="L84" s="7" t="s">
-        <v>238</v>
-      </c>
+      <c r="L84" s="4"/>
       <c r="M84" s="5" t="s">
         <v>36</v>
       </c>
@@ -5806,9 +5790,7 @@
       <c r="K85" s="5" t="s">
         <v>234</v>
       </c>
-      <c r="L85" s="7" t="s">
-        <v>238</v>
-      </c>
+      <c r="L85" s="4"/>
       <c r="M85" s="5" t="s">
         <v>36</v>
       </c>
@@ -5837,52 +5819,50 @@
       </c>
     </row>
     <row r="86" spans="1:22">
-      <c r="A86" s="5" t="s">
+      <c r="A86" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="B86" s="5" t="s">
+      <c r="B86" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C86" s="5" t="s">
+      <c r="C86" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D86" s="5" t="s">
+      <c r="D86" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="E86" s="5"/>
-      <c r="F86" s="5" t="s">
+      <c r="E86" s="2"/>
+      <c r="F86" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="G86" s="5"/>
-      <c r="H86" s="5"/>
-      <c r="I86" s="5"/>
-      <c r="J86" s="5" t="s">
+      <c r="G86" s="2"/>
+      <c r="H86" s="2"/>
+      <c r="I86" s="2"/>
+      <c r="J86" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="K86" s="5"/>
-      <c r="L86" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="M86" s="5" t="s">
+      <c r="K86" s="2"/>
+      <c r="L86" s="4"/>
+      <c r="M86" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="N86" s="5" t="s">
+      <c r="N86" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="O86" s="5" t="s">
+      <c r="O86" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="P86" s="5"/>
-      <c r="Q86" s="5" t="s">
+      <c r="P86" s="2"/>
+      <c r="Q86" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="R86" s="5"/>
-      <c r="S86" s="5"/>
-      <c r="T86" s="5"/>
-      <c r="U86" s="5" t="s">
+      <c r="R86" s="2"/>
+      <c r="S86" s="2"/>
+      <c r="T86" s="2"/>
+      <c r="U86" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="V86" s="5"/>
+      <c r="V86" s="2"/>
     </row>
     <row r="87" spans="1:22">
       <c r="A87" s="5" t="s">
@@ -5910,9 +5890,7 @@
         <v>222</v>
       </c>
       <c r="K87" s="5"/>
-      <c r="L87" s="7" t="s">
-        <v>238</v>
-      </c>
+      <c r="L87" s="4"/>
       <c r="M87" s="5" t="s">
         <v>37</v>
       </c>
@@ -5966,9 +5944,7 @@
       <c r="K88" s="5" t="s">
         <v>235</v>
       </c>
-      <c r="L88" s="7" t="s">
-        <v>238</v>
-      </c>
+      <c r="L88" s="4"/>
       <c r="M88" s="5" t="s">
         <v>37</v>
       </c>
@@ -6026,9 +6002,7 @@
         <v>204</v>
       </c>
       <c r="K89" s="5"/>
-      <c r="L89" s="7" t="s">
-        <v>238</v>
-      </c>
+      <c r="L89" s="4"/>
       <c r="M89" s="5" t="s">
         <v>37</v>
       </c>
@@ -6057,44 +6031,42 @@
       <c r="V89" s="5"/>
     </row>
     <row r="90" spans="1:22">
-      <c r="A90" s="5" t="s">
+      <c r="A90" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="B90" s="5" t="s">
+      <c r="B90" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C90" s="5" t="s">
+      <c r="C90" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D90" s="5"/>
-      <c r="E90" s="5"/>
-      <c r="F90" s="5"/>
-      <c r="G90" s="5"/>
-      <c r="H90" s="5"/>
-      <c r="I90" s="5"/>
-      <c r="J90" s="5" t="s">
+      <c r="D90" s="2"/>
+      <c r="E90" s="2"/>
+      <c r="F90" s="2"/>
+      <c r="G90" s="2"/>
+      <c r="H90" s="2"/>
+      <c r="I90" s="2"/>
+      <c r="J90" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="K90" s="5"/>
-      <c r="L90" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="M90" s="5" t="s">
+      <c r="K90" s="2"/>
+      <c r="L90" s="4"/>
+      <c r="M90" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="N90" s="5" t="s">
+      <c r="N90" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="O90" s="5"/>
-      <c r="P90" s="5"/>
-      <c r="Q90" s="5"/>
-      <c r="R90" s="5"/>
-      <c r="S90" s="5"/>
-      <c r="T90" s="5"/>
-      <c r="U90" s="5" t="s">
+      <c r="O90" s="2"/>
+      <c r="P90" s="2"/>
+      <c r="Q90" s="2"/>
+      <c r="R90" s="2"/>
+      <c r="S90" s="2"/>
+      <c r="T90" s="2"/>
+      <c r="U90" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="V90" s="5"/>
+      <c r="V90" s="2"/>
     </row>
     <row r="91" spans="1:22">
       <c r="A91" s="5" t="s">
@@ -6120,9 +6092,7 @@
         <v>203</v>
       </c>
       <c r="K91" s="5"/>
-      <c r="L91" s="7" t="s">
-        <v>238</v>
-      </c>
+      <c r="L91" s="4"/>
       <c r="M91" s="5" t="s">
         <v>38</v>
       </c>
@@ -6174,9 +6144,7 @@
         <v>204</v>
       </c>
       <c r="K92" s="5"/>
-      <c r="L92" s="7" t="s">
-        <v>238</v>
-      </c>
+      <c r="L92" s="4"/>
       <c r="M92" s="5" t="s">
         <v>38</v>
       </c>
@@ -6234,9 +6202,7 @@
       <c r="K93" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="L93" s="7" t="s">
-        <v>238</v>
-      </c>
+      <c r="L93" s="4"/>
       <c r="M93" s="5" t="s">
         <v>38</v>
       </c>
@@ -6294,9 +6260,7 @@
         <v>204</v>
       </c>
       <c r="K94" s="5"/>
-      <c r="L94" s="7" t="s">
-        <v>238</v>
-      </c>
+      <c r="L94" s="4"/>
       <c r="M94" s="5" t="s">
         <v>38</v>
       </c>
@@ -6325,52 +6289,50 @@
       <c r="V94" s="5"/>
     </row>
     <row r="95" spans="1:22">
-      <c r="A95" s="5" t="s">
+      <c r="A95" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="B95" s="5" t="s">
+      <c r="B95" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C95" s="5" t="s">
+      <c r="C95" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D95" s="5" t="s">
+      <c r="D95" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E95" s="5"/>
-      <c r="F95" s="5" t="s">
+      <c r="E95" s="2"/>
+      <c r="F95" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="G95" s="5"/>
-      <c r="H95" s="5"/>
-      <c r="I95" s="5"/>
-      <c r="J95" s="5" t="s">
+      <c r="G95" s="2"/>
+      <c r="H95" s="2"/>
+      <c r="I95" s="2"/>
+      <c r="J95" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="K95" s="5"/>
-      <c r="L95" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="M95" s="5" t="s">
+      <c r="K95" s="2"/>
+      <c r="L95" s="4"/>
+      <c r="M95" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="N95" s="5" t="s">
+      <c r="N95" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="O95" s="5" t="s">
+      <c r="O95" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="P95" s="5"/>
-      <c r="Q95" s="5" t="s">
+      <c r="P95" s="2"/>
+      <c r="Q95" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="R95" s="5"/>
-      <c r="S95" s="5"/>
-      <c r="T95" s="5"/>
-      <c r="U95" s="5" t="s">
+      <c r="R95" s="2"/>
+      <c r="S95" s="2"/>
+      <c r="T95" s="2"/>
+      <c r="U95" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="V95" s="5"/>
+      <c r="V95" s="2"/>
     </row>
     <row r="96" spans="1:22">
       <c r="A96" s="5" t="s">
@@ -6402,9 +6364,7 @@
         <v>204</v>
       </c>
       <c r="K96" s="5"/>
-      <c r="L96" s="7" t="s">
-        <v>238</v>
-      </c>
+      <c r="L96" s="4"/>
       <c r="M96" s="5" t="s">
         <v>39</v>
       </c>
@@ -6462,9 +6422,7 @@
       <c r="K97" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="L97" s="7" t="s">
-        <v>238</v>
-      </c>
+      <c r="L97" s="4"/>
       <c r="M97" s="5" t="s">
         <v>39</v>
       </c>
@@ -6522,9 +6480,7 @@
         <v>204</v>
       </c>
       <c r="K98" s="5"/>
-      <c r="L98" s="7" t="s">
-        <v>238</v>
-      </c>
+      <c r="L98" s="4"/>
       <c r="M98" s="5" t="s">
         <v>39</v>
       </c>
@@ -6553,52 +6509,50 @@
       <c r="V98" s="5"/>
     </row>
     <row r="99" spans="1:22">
-      <c r="A99" s="5" t="s">
+      <c r="A99" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="B99" s="5" t="s">
+      <c r="B99" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C99" s="5" t="s">
+      <c r="C99" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D99" s="5" t="s">
+      <c r="D99" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E99" s="5"/>
-      <c r="F99" s="5" t="s">
+      <c r="E99" s="2"/>
+      <c r="F99" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="G99" s="5"/>
-      <c r="H99" s="5"/>
-      <c r="I99" s="5"/>
-      <c r="J99" s="5" t="s">
+      <c r="G99" s="2"/>
+      <c r="H99" s="2"/>
+      <c r="I99" s="2"/>
+      <c r="J99" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="K99" s="5"/>
-      <c r="L99" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="M99" s="5" t="s">
+      <c r="K99" s="2"/>
+      <c r="L99" s="4"/>
+      <c r="M99" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="N99" s="5" t="s">
+      <c r="N99" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="O99" s="5" t="s">
+      <c r="O99" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="P99" s="5"/>
-      <c r="Q99" s="5" t="s">
+      <c r="P99" s="2"/>
+      <c r="Q99" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="R99" s="5"/>
-      <c r="S99" s="5"/>
-      <c r="T99" s="5"/>
-      <c r="U99" s="5" t="s">
+      <c r="R99" s="2"/>
+      <c r="S99" s="2"/>
+      <c r="T99" s="2"/>
+      <c r="U99" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="V99" s="5"/>
+      <c r="V99" s="2"/>
     </row>
     <row r="100" spans="1:22">
       <c r="A100" s="5" t="s">
@@ -6630,9 +6584,7 @@
         <v>204</v>
       </c>
       <c r="K100" s="5"/>
-      <c r="L100" s="7" t="s">
-        <v>238</v>
-      </c>
+      <c r="L100" s="4"/>
       <c r="M100" s="5" t="s">
         <v>40</v>
       </c>
@@ -6690,9 +6642,7 @@
       <c r="K101" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="L101" s="7" t="s">
-        <v>238</v>
-      </c>
+      <c r="L101" s="4"/>
       <c r="M101" s="5" t="s">
         <v>40</v>
       </c>
@@ -6750,9 +6700,7 @@
         <v>204</v>
       </c>
       <c r="K102" s="5"/>
-      <c r="L102" s="7" t="s">
-        <v>238</v>
-      </c>
+      <c r="L102" s="4"/>
       <c r="M102" s="5" t="s">
         <v>40</v>
       </c>
@@ -6781,48 +6729,46 @@
       <c r="V102" s="5"/>
     </row>
     <row r="103" spans="1:22">
-      <c r="A103" s="5" t="s">
+      <c r="A103" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="B103" s="5" t="s">
+      <c r="B103" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C103" s="5"/>
-      <c r="D103" s="5" t="s">
+      <c r="C103" s="2"/>
+      <c r="D103" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E103" s="5"/>
-      <c r="F103" s="5" t="s">
+      <c r="E103" s="2"/>
+      <c r="F103" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="G103" s="5"/>
-      <c r="H103" s="5"/>
-      <c r="I103" s="5"/>
-      <c r="J103" s="5" t="s">
+      <c r="G103" s="2"/>
+      <c r="H103" s="2"/>
+      <c r="I103" s="2"/>
+      <c r="J103" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="K103" s="5"/>
-      <c r="L103" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="M103" s="5" t="s">
+      <c r="K103" s="2"/>
+      <c r="L103" s="4"/>
+      <c r="M103" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="N103" s="5"/>
-      <c r="O103" s="5" t="s">
+      <c r="N103" s="2"/>
+      <c r="O103" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="P103" s="5"/>
-      <c r="Q103" s="5" t="s">
+      <c r="P103" s="2"/>
+      <c r="Q103" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="R103" s="5"/>
-      <c r="S103" s="5"/>
-      <c r="T103" s="5"/>
-      <c r="U103" s="5" t="s">
+      <c r="R103" s="2"/>
+      <c r="S103" s="2"/>
+      <c r="T103" s="2"/>
+      <c r="U103" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="V103" s="5"/>
+      <c r="V103" s="2"/>
     </row>
     <row r="104" spans="1:22">
       <c r="A104" s="5" t="s">
@@ -6850,9 +6796,7 @@
         <v>204</v>
       </c>
       <c r="K104" s="5"/>
-      <c r="L104" s="7" t="s">
-        <v>238</v>
-      </c>
+      <c r="L104" s="4"/>
       <c r="M104" s="5" t="s">
         <v>41</v>
       </c>
@@ -6902,9 +6846,7 @@
         <v>204</v>
       </c>
       <c r="K105" s="5"/>
-      <c r="L105" s="7" t="s">
-        <v>238</v>
-      </c>
+      <c r="L105" s="4"/>
       <c r="M105" s="5" t="s">
         <v>41</v>
       </c>
@@ -6929,48 +6871,46 @@
       <c r="V105" s="5"/>
     </row>
     <row r="106" spans="1:22">
-      <c r="A106" s="5" t="s">
+      <c r="A106" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="B106" s="5" t="s">
+      <c r="B106" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C106" s="5"/>
-      <c r="D106" s="5" t="s">
+      <c r="C106" s="2"/>
+      <c r="D106" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="E106" s="5"/>
-      <c r="F106" s="5" t="s">
+      <c r="E106" s="2"/>
+      <c r="F106" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="G106" s="5"/>
-      <c r="H106" s="5"/>
-      <c r="I106" s="5"/>
-      <c r="J106" s="5" t="s">
+      <c r="G106" s="2"/>
+      <c r="H106" s="2"/>
+      <c r="I106" s="2"/>
+      <c r="J106" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="K106" s="5"/>
-      <c r="L106" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="M106" s="5" t="s">
+      <c r="K106" s="2"/>
+      <c r="L106" s="4"/>
+      <c r="M106" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="N106" s="5"/>
-      <c r="O106" s="5" t="s">
+      <c r="N106" s="2"/>
+      <c r="O106" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="P106" s="5"/>
-      <c r="Q106" s="5" t="s">
+      <c r="P106" s="2"/>
+      <c r="Q106" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="R106" s="5"/>
-      <c r="S106" s="5"/>
-      <c r="T106" s="5"/>
-      <c r="U106" s="5" t="s">
+      <c r="R106" s="2"/>
+      <c r="S106" s="2"/>
+      <c r="T106" s="2"/>
+      <c r="U106" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="V106" s="5"/>
+      <c r="V106" s="2"/>
     </row>
     <row r="107" spans="1:22">
       <c r="A107" s="5" t="s">
@@ -6998,9 +6938,7 @@
         <v>204</v>
       </c>
       <c r="K107" s="5"/>
-      <c r="L107" s="7" t="s">
-        <v>238</v>
-      </c>
+      <c r="L107" s="4"/>
       <c r="M107" s="5" t="s">
         <v>42</v>
       </c>
@@ -7050,9 +6988,7 @@
         <v>204</v>
       </c>
       <c r="K108" s="5"/>
-      <c r="L108" s="7" t="s">
-        <v>238</v>
-      </c>
+      <c r="L108" s="4"/>
       <c r="M108" s="5" t="s">
         <v>42</v>
       </c>

--- a/data/output/FV2504_FV2410/MSCONS/13020.xlsx
+++ b/data/output/FV2504_FV2410/MSCONS/13020.xlsx
@@ -1168,7 +1168,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1193,6 +1193,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1635,7 +1638,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -2297,7 +2300,7 @@
       </c>
       <c r="K15" s="2"/>
       <c r="L15" s="4"/>
-      <c r="M15" s="2" t="s">
+      <c r="M15" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N15" s="2"/>
@@ -2659,7 +2662,7 @@
       </c>
       <c r="K22" s="2"/>
       <c r="L22" s="4"/>
-      <c r="M22" s="2" t="s">
+      <c r="M22" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N22" s="2"/>
@@ -2901,7 +2904,7 @@
       </c>
       <c r="K27" s="2"/>
       <c r="L27" s="4"/>
-      <c r="M27" s="2" t="s">
+      <c r="M27" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N27" s="2"/>
@@ -3103,7 +3106,7 @@
       </c>
       <c r="K31" s="2"/>
       <c r="L31" s="4"/>
-      <c r="M31" s="2" t="s">
+      <c r="M31" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N31" s="2" t="s">
@@ -3303,7 +3306,7 @@
       </c>
       <c r="K35" s="2"/>
       <c r="L35" s="4"/>
-      <c r="M35" s="2" t="s">
+      <c r="M35" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N35" s="2" t="s">
@@ -3611,7 +3614,7 @@
       </c>
       <c r="K41" s="2"/>
       <c r="L41" s="4"/>
-      <c r="M41" s="2" t="s">
+      <c r="M41" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N41" s="2" t="s">
@@ -3803,7 +3806,7 @@
       </c>
       <c r="K45" s="2"/>
       <c r="L45" s="4"/>
-      <c r="M45" s="2" t="s">
+      <c r="M45" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N45" s="2" t="s">
@@ -4179,7 +4182,7 @@
       </c>
       <c r="K52" s="2"/>
       <c r="L52" s="4"/>
-      <c r="M52" s="2" t="s">
+      <c r="M52" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N52" s="2" t="s">
@@ -4485,7 +4488,7 @@
       </c>
       <c r="K58" s="2"/>
       <c r="L58" s="4"/>
-      <c r="M58" s="2" t="s">
+      <c r="M58" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N58" s="2"/>
@@ -4577,7 +4580,7 @@
         <v>230</v>
       </c>
       <c r="L60" s="4"/>
-      <c r="M60" s="2" t="s">
+      <c r="M60" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N60" s="2" t="s">
@@ -4713,7 +4716,7 @@
       </c>
       <c r="K63" s="2"/>
       <c r="L63" s="4"/>
-      <c r="M63" s="2" t="s">
+      <c r="M63" s="3" t="s">
         <v>33</v>
       </c>
       <c r="N63" s="2" t="s">
@@ -4904,23 +4907,23 @@
       <c r="M67" s="9" t="s">
         <v>240</v>
       </c>
-      <c r="N67" s="9" t="s">
+      <c r="N67" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="O67" s="9" t="s">
+      <c r="O67" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="P67" s="9"/>
-      <c r="Q67" s="9" t="s">
+      <c r="P67" s="10"/>
+      <c r="Q67" s="10" t="s">
         <v>242</v>
       </c>
-      <c r="R67" s="9"/>
-      <c r="S67" s="9"/>
-      <c r="T67" s="9"/>
-      <c r="U67" s="9" t="s">
+      <c r="R67" s="10"/>
+      <c r="S67" s="10"/>
+      <c r="T67" s="10"/>
+      <c r="U67" s="10" t="s">
         <v>244</v>
       </c>
-      <c r="V67" s="9" t="s">
+      <c r="V67" s="10" t="s">
         <v>246</v>
       </c>
     </row>
@@ -4941,32 +4944,32 @@
       <c r="L68" s="8" t="s">
         <v>239</v>
       </c>
-      <c r="M68" s="9" t="s">
+      <c r="M68" s="10" t="s">
         <v>240</v>
       </c>
-      <c r="N68" s="9" t="s">
+      <c r="N68" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="O68" s="9" t="s">
+      <c r="O68" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="P68" s="9" t="s">
+      <c r="P68" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="Q68" s="9" t="s">
+      <c r="Q68" s="10" t="s">
         <v>242</v>
       </c>
-      <c r="R68" s="9" t="s">
+      <c r="R68" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="S68" s="9"/>
-      <c r="T68" s="9" t="s">
+      <c r="S68" s="10"/>
+      <c r="T68" s="10" t="s">
         <v>199</v>
       </c>
-      <c r="U68" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="V68" s="9"/>
+      <c r="U68" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="V68" s="10"/>
     </row>
     <row r="69" spans="1:22">
       <c r="A69" s="5" t="s">
@@ -4985,30 +4988,30 @@
       <c r="L69" s="8" t="s">
         <v>239</v>
       </c>
-      <c r="M69" s="9" t="s">
+      <c r="M69" s="10" t="s">
         <v>240</v>
       </c>
-      <c r="N69" s="9" t="s">
+      <c r="N69" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="O69" s="9" t="s">
+      <c r="O69" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="P69" s="9" t="s">
+      <c r="P69" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="Q69" s="9" t="s">
+      <c r="Q69" s="10" t="s">
         <v>242</v>
       </c>
-      <c r="R69" s="9"/>
-      <c r="S69" s="9"/>
-      <c r="T69" s="9" t="s">
+      <c r="R69" s="10"/>
+      <c r="S69" s="10"/>
+      <c r="T69" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="U69" s="9" t="s">
+      <c r="U69" s="10" t="s">
         <v>220</v>
       </c>
-      <c r="V69" s="9" t="s">
+      <c r="V69" s="10" t="s">
         <v>233</v>
       </c>
     </row>
@@ -5029,32 +5032,32 @@
       <c r="L70" s="8" t="s">
         <v>239</v>
       </c>
-      <c r="M70" s="9" t="s">
+      <c r="M70" s="10" t="s">
         <v>240</v>
       </c>
-      <c r="N70" s="9" t="s">
+      <c r="N70" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="O70" s="9" t="s">
+      <c r="O70" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="P70" s="9" t="s">
+      <c r="P70" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="Q70" s="9" t="s">
+      <c r="Q70" s="10" t="s">
         <v>242</v>
       </c>
-      <c r="R70" s="9" t="s">
+      <c r="R70" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="S70" s="9"/>
-      <c r="T70" s="9" t="s">
+      <c r="S70" s="10"/>
+      <c r="T70" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="U70" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="V70" s="9"/>
+      <c r="U70" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="V70" s="10"/>
     </row>
     <row r="71" spans="1:22">
       <c r="A71" s="5" t="s">
@@ -5076,23 +5079,23 @@
       <c r="M71" s="9" t="s">
         <v>241</v>
       </c>
-      <c r="N71" s="9" t="s">
+      <c r="N71" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="O71" s="9" t="s">
+      <c r="O71" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="P71" s="9"/>
-      <c r="Q71" s="9" t="s">
+      <c r="P71" s="10"/>
+      <c r="Q71" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="R71" s="9"/>
-      <c r="S71" s="9"/>
-      <c r="T71" s="9"/>
-      <c r="U71" s="9" t="s">
+      <c r="R71" s="10"/>
+      <c r="S71" s="10"/>
+      <c r="T71" s="10"/>
+      <c r="U71" s="10" t="s">
         <v>244</v>
       </c>
-      <c r="V71" s="9" t="s">
+      <c r="V71" s="10" t="s">
         <v>246</v>
       </c>
     </row>
@@ -5113,32 +5116,32 @@
       <c r="L72" s="8" t="s">
         <v>239</v>
       </c>
-      <c r="M72" s="9" t="s">
+      <c r="M72" s="10" t="s">
         <v>241</v>
       </c>
-      <c r="N72" s="9" t="s">
+      <c r="N72" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="O72" s="9" t="s">
+      <c r="O72" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="P72" s="9" t="s">
+      <c r="P72" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="Q72" s="9" t="s">
+      <c r="Q72" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="R72" s="9" t="s">
+      <c r="R72" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="S72" s="9"/>
-      <c r="T72" s="9" t="s">
+      <c r="S72" s="10"/>
+      <c r="T72" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="U72" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="V72" s="9"/>
+      <c r="U72" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="V72" s="10"/>
     </row>
     <row r="73" spans="1:22">
       <c r="A73" s="5" t="s">
@@ -5157,30 +5160,30 @@
       <c r="L73" s="8" t="s">
         <v>239</v>
       </c>
-      <c r="M73" s="9" t="s">
+      <c r="M73" s="10" t="s">
         <v>241</v>
       </c>
-      <c r="N73" s="9" t="s">
+      <c r="N73" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="O73" s="9" t="s">
+      <c r="O73" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="P73" s="9" t="s">
+      <c r="P73" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="Q73" s="9" t="s">
+      <c r="Q73" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="R73" s="9"/>
-      <c r="S73" s="9"/>
-      <c r="T73" s="9" t="s">
+      <c r="R73" s="10"/>
+      <c r="S73" s="10"/>
+      <c r="T73" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="U73" s="9" t="s">
+      <c r="U73" s="10" t="s">
         <v>220</v>
       </c>
-      <c r="V73" s="9" t="s">
+      <c r="V73" s="10" t="s">
         <v>233</v>
       </c>
     </row>
@@ -5201,54 +5204,54 @@
       <c r="L74" s="8" t="s">
         <v>239</v>
       </c>
-      <c r="M74" s="9" t="s">
+      <c r="M74" s="10" t="s">
         <v>241</v>
       </c>
-      <c r="N74" s="9" t="s">
+      <c r="N74" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="O74" s="9" t="s">
+      <c r="O74" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="P74" s="9" t="s">
+      <c r="P74" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="Q74" s="9" t="s">
+      <c r="Q74" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="R74" s="9" t="s">
+      <c r="R74" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="S74" s="9"/>
-      <c r="T74" s="9" t="s">
+      <c r="S74" s="10"/>
+      <c r="T74" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="U74" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="V74" s="9"/>
+      <c r="U74" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="V74" s="10"/>
     </row>
     <row r="75" spans="1:22">
-      <c r="A75" s="5" t="s">
+      <c r="A75" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="B75" s="5" t="s">
+      <c r="B75" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C75" s="5" t="s">
+      <c r="C75" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D75" s="5" t="s">
+      <c r="D75" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E75" s="5"/>
-      <c r="F75" s="5" t="s">
+      <c r="E75" s="2"/>
+      <c r="F75" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="G75" s="5"/>
-      <c r="H75" s="5"/>
-      <c r="I75" s="5"/>
-      <c r="J75" s="5" t="s">
+      <c r="G75" s="2"/>
+      <c r="H75" s="2"/>
+      <c r="I75" s="2"/>
+      <c r="J75" s="2" t="s">
         <v>219</v>
       </c>
       <c r="K75" s="6" t="s">
@@ -5257,23 +5260,23 @@
       <c r="L75" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="M75" s="5" t="s">
+      <c r="M75" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="N75" s="5" t="s">
+      <c r="N75" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="O75" s="5" t="s">
+      <c r="O75" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="P75" s="5"/>
-      <c r="Q75" s="5" t="s">
+      <c r="P75" s="2"/>
+      <c r="Q75" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="R75" s="5"/>
-      <c r="S75" s="5"/>
-      <c r="T75" s="5"/>
-      <c r="U75" s="5" t="s">
+      <c r="R75" s="2"/>
+      <c r="S75" s="2"/>
+      <c r="T75" s="2"/>
+      <c r="U75" s="2" t="s">
         <v>219</v>
       </c>
       <c r="V75" s="6" t="s">
@@ -5451,26 +5454,26 @@
       <c r="V78" s="5"/>
     </row>
     <row r="79" spans="1:22">
-      <c r="A79" s="5" t="s">
+      <c r="A79" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="B79" s="5" t="s">
+      <c r="B79" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C79" s="5" t="s">
+      <c r="C79" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D79" s="5" t="s">
+      <c r="D79" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E79" s="5"/>
-      <c r="F79" s="5" t="s">
+      <c r="E79" s="2"/>
+      <c r="F79" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="G79" s="5"/>
-      <c r="H79" s="5"/>
-      <c r="I79" s="5"/>
-      <c r="J79" s="5" t="s">
+      <c r="G79" s="2"/>
+      <c r="H79" s="2"/>
+      <c r="I79" s="2"/>
+      <c r="J79" s="2" t="s">
         <v>219</v>
       </c>
       <c r="K79" s="6" t="s">
@@ -5479,23 +5482,23 @@
       <c r="L79" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="M79" s="5" t="s">
+      <c r="M79" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="N79" s="5" t="s">
+      <c r="N79" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="O79" s="5" t="s">
+      <c r="O79" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="P79" s="5"/>
-      <c r="Q79" s="5" t="s">
+      <c r="P79" s="2"/>
+      <c r="Q79" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="R79" s="5"/>
-      <c r="S79" s="5"/>
-      <c r="T79" s="5"/>
-      <c r="U79" s="5" t="s">
+      <c r="R79" s="2"/>
+      <c r="S79" s="2"/>
+      <c r="T79" s="2"/>
+      <c r="U79" s="2" t="s">
         <v>219</v>
       </c>
       <c r="V79" s="6" t="s">
@@ -5697,7 +5700,7 @@
       </c>
       <c r="K83" s="2"/>
       <c r="L83" s="4"/>
-      <c r="M83" s="2" t="s">
+      <c r="M83" s="3" t="s">
         <v>36</v>
       </c>
       <c r="N83" s="2" t="s">
@@ -5843,7 +5846,7 @@
       </c>
       <c r="K86" s="2"/>
       <c r="L86" s="4"/>
-      <c r="M86" s="2" t="s">
+      <c r="M86" s="3" t="s">
         <v>37</v>
       </c>
       <c r="N86" s="2" t="s">
@@ -6051,7 +6054,7 @@
       </c>
       <c r="K90" s="2"/>
       <c r="L90" s="4"/>
-      <c r="M90" s="2" t="s">
+      <c r="M90" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N90" s="2" t="s">
@@ -6313,7 +6316,7 @@
       </c>
       <c r="K95" s="2"/>
       <c r="L95" s="4"/>
-      <c r="M95" s="2" t="s">
+      <c r="M95" s="3" t="s">
         <v>39</v>
       </c>
       <c r="N95" s="2" t="s">
@@ -6533,7 +6536,7 @@
       </c>
       <c r="K99" s="2"/>
       <c r="L99" s="4"/>
-      <c r="M99" s="2" t="s">
+      <c r="M99" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N99" s="2" t="s">
@@ -6751,7 +6754,7 @@
       </c>
       <c r="K103" s="2"/>
       <c r="L103" s="4"/>
-      <c r="M103" s="2" t="s">
+      <c r="M103" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N103" s="2"/>
@@ -6893,7 +6896,7 @@
       </c>
       <c r="K106" s="2"/>
       <c r="L106" s="4"/>
-      <c r="M106" s="2" t="s">
+      <c r="M106" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N106" s="2"/>
